--- a/GRU/GRU_FORECASTx.xlsx
+++ b/GRU/GRU_FORECASTx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\Confidence Interval TA\GRU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607C7BB0-F763-4509-94E3-635735984855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CAF1DB-FA09-4816-8D2E-77FC73D0A3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GG25"/>
+  <dimension ref="A1:GG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,122 +591,502 @@
     </row>
     <row r="2" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>9.2256831199999993</v>
+        <v>8.7779913569999994</v>
       </c>
     </row>
     <row r="3" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>9.6813538300000008</v>
+        <v>9.1856965069999994</v>
       </c>
     </row>
     <row r="4" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>10.116220370000001</v>
+        <v>10.421498870000001</v>
       </c>
     </row>
     <row r="5" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>13.04239522</v>
+        <v>10.940692589999999</v>
       </c>
     </row>
     <row r="6" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>9.0744361859999998</v>
+        <v>8.9808337700000003</v>
       </c>
     </row>
     <row r="7" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>9.3121016589999996</v>
+        <v>10.109640600000001</v>
       </c>
     </row>
     <row r="8" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>9.2760501519999998</v>
+        <v>9.2345746480000006</v>
       </c>
     </row>
     <row r="9" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8.7883291270000008</v>
+        <v>8.6469260569999999</v>
       </c>
     </row>
     <row r="10" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>10.79501511</v>
+        <v>9.0768001040000001</v>
       </c>
     </row>
     <row r="11" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>9.5562061780000001</v>
+        <v>8.8802637359999999</v>
       </c>
     </row>
     <row r="12" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>10.873380020000001</v>
+        <v>8.8942613349999995</v>
       </c>
     </row>
     <row r="13" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>8.790566213</v>
+        <v>14.907299999999999</v>
       </c>
     </row>
     <row r="14" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>9.5829005689999995</v>
+        <v>13.621709360000001</v>
       </c>
     </row>
     <row r="15" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>9.3717719059999993</v>
+        <v>10.342104450000001</v>
       </c>
     </row>
     <row r="16" spans="1:189" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>8.9641507709999999</v>
+        <v>9.6601030310000002</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>9.1966920030000008</v>
+        <v>8.8214891770000001</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>8.9787893479999994</v>
+        <v>9.5112342749999996</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>9.8282297809999992</v>
+        <v>9.0623476210000007</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>9.3624187939999999</v>
+        <v>9.2758082169999998</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>9.4058488360000005</v>
+        <v>9.0875052889999992</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>8.9508371269999998</v>
+        <v>9.7031781860000006</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>9.5768761839999996</v>
+        <v>9.344642984</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>10.538619410000001</v>
+        <v>9.1763275800000006</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>9.0339490760000007</v>
+        <v>9.4160257210000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>9.3241687899999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>9.3560871110000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>13.356706190000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>9.8759146439999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>8.9095523520000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>9.9867993330000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>9.2354423089999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>9.2110710650000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>8.9856052270000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>11.407858770000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>9.1337852070000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>8.9063767659999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>10.28142486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>8.5886526809999992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>9.4898474000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>9.6240585420000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>8.7150617029999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>9.2866475190000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>12.20718598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>8.9842058520000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>9.4932053179999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>9.1995724059999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>17.62250435</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>9.4700619429999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>9.4060293599999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>9.2178190549999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>9.4813466940000009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>9.7230778499999992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>9.5297533039999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>9.4475453930000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>9.3136786380000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>9.4770243020000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>9.1241626670000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>8.9676228459999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>10.606340019999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>9.4474578450000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>9.1887646279999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>9.2003500690000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>10.035033070000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>8.9878702540000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>8.7923213530000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>9.3174137750000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>8.8987349580000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>8.9702150740000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>13.50017119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>9.8597247780000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>9.8686947489999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>9.1447388860000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>9.4970902590000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>9.1549798510000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>9.1706869710000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>11.18244112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>9.0955492600000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>9.0210540360000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>9.8690980869999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>10.23713016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>9.0532119790000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>8.9698938300000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>9.1516904940000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>10.38720541</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>9.7973635899999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>9.1023106659999993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>8.6359968459999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>10.10629967</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>8.7603237360000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>9.6475987570000008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>9.8135712690000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>9.8517257350000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>9.8589723060000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>10.025080150000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>9.4948219550000008</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>8.7768222439999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>9.0042089389999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>9.4461787580000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>9.4201233050000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>9.497062476</v>
       </c>
     </row>
   </sheetData>
